--- a/aircraft/reports/airline-aircraft-type-heatmap.xlsx
+++ b/aircraft/reports/airline-aircraft-type-heatmap.xlsx
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" t="n">
         <v>75</v>
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5">
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="n">
         <v>25</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
